--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radik\OneDrive\Документы\GitHub\mailboxiq\Unicorn\Answers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\mailboxiq\Unicorn\Answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77011D-E854-474D-8E44-A50192D9F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
-  <si>
-    <t>Questions about the MailboxIQ App:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>What is MailboxIQ and what does it do?</t>
   </si>
@@ -62,12 +60,6 @@
     <t>How can someone get started with using the MailboxIQ App?</t>
   </si>
   <si>
-    <t>General Questions:</t>
-  </si>
-  <si>
-    <t>Answer:</t>
-  </si>
-  <si>
     <t>I operate through advanced AI technology, specifically PALM2, a powerful language model. It is a state-of-the-art AI framework that empowers our unicorn to understand and respond to questions in a conversational manner. It leverages deep learning and natural language processing techniques to provide accurate and context-aware answers. Our Banking Unicorn has been trained on a vast dataset, allowing it to provide insightful responses not only about itself but also about our MailboxIQ App. Feel free to ask any questions, and the Banking Unicorn will showcase its capabilities.</t>
   </si>
   <si>
@@ -81,9 +73,6 @@
   </si>
   <si>
     <t>The purpose of having the Banking Unicorn at our exhibition stand is to offer a unique and engaging way for participants to interact with our brand and learn about our products and services. The Banking Unicorn, powered by advanced AI technology, serves as a friendly and informative ambassador for our company. It not only provides insights into our MailboxIQ App but also showcases the innovative technology we use, such as the PALM2 AI framework.</t>
-  </si>
-  <si>
-    <t>Questions about the Banking Unicorn:</t>
   </si>
   <si>
     <t>What's the name of the Banking Unicorn?</t>
@@ -280,24 +269,30 @@
   <si>
     <t>0101</t>
   </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>answers</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Tell me about your team</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -326,11 +321,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -340,7 +332,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,308 +609,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="48.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="67.1796875" customWidth="1"/>
     <col min="3" max="3" width="76.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Questions about the MailboxIQ App:</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>0101</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>I'm sorry, I got disconnected from the Internet and I can't provide an answer to that question. Please feel free to reach out to the person at our exhibition stand for assistance. They will be happy to help with all your queries and provide you with more information about our products and services. Thank you for your understanding.</t>
   </si>
 </sst>
 </file>
@@ -618,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,6 +930,17 @@
         <v>52</v>
       </c>
     </row>
+    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
-  <si>
-    <t>Questions about the MailboxIQ App:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>What is MailboxIQ and what does it do?</t>
   </si>
@@ -62,12 +59,6 @@
     <t>How can someone get started with using the MailboxIQ App?</t>
   </si>
   <si>
-    <t>General Questions:</t>
-  </si>
-  <si>
-    <t>Answer:</t>
-  </si>
-  <si>
     <t>I operate through advanced AI technology, specifically PALM2, a powerful language model. It is a state-of-the-art AI framework that empowers our unicorn to understand and respond to questions in a conversational manner. It leverages deep learning and natural language processing techniques to provide accurate and context-aware answers. Our Banking Unicorn has been trained on a vast dataset, allowing it to provide insightful responses not only about itself but also about our MailboxIQ App. Feel free to ask any questions, and the Banking Unicorn will showcase its capabilities.</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
   </si>
   <si>
     <t>The purpose of having the Banking Unicorn at our exhibition stand is to offer a unique and engaging way for participants to interact with our brand and learn about our products and services. The Banking Unicorn, powered by advanced AI technology, serves as a friendly and informative ambassador for our company. It not only provides insights into our MailboxIQ App but also showcases the innovative technology we use, such as the PALM2 AI framework.</t>
-  </si>
-  <si>
-    <t>Questions about the Banking Unicorn:</t>
   </si>
   <si>
     <t>What's the name of the Banking Unicorn?</t>
@@ -289,24 +277,30 @@
   <si>
     <t>I'm sorry, I got disconnected from the Internet and I can't provide an answer to that question. Please feel free to reach out to the person at our exhibition stand for assistance. They will be happy to help with all your queries and provide you with more information about our products and services. Thank you for your understanding.</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>answers</t>
+  </si>
+  <si>
+    <t>Can you please tell me about your team?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -337,9 +331,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -347,6 +338,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -627,318 +621,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="48.36328125" customWidth="1"/>
     <col min="3" max="3" width="76.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>What is MailboxIQ and what does it do?</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Can you please tell me about your team?</t>
+  </si>
+  <si>
+    <t>I do email summaries, keep your inbox clean, Translate your messages, like a linguistic machine, A unicorn in the hackathon scene, that's me, MailboxIQ, the email king, can't you see?</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,12 +648,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">

--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>What is MailboxIQ and what does it do?</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>I do email summaries, keep your inbox clean, Translate your messages, like a linguistic machine, A unicorn in the hackathon scene, that's me, MailboxIQ, the email king, can't you see?</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Yo, I'm MailboxIQ, feeling fine, no doubt,
+In the digital world, I'm what it's all about,
+I'm coding, decoding, 24/7 in stride,
+Helping emails flow smooth like a tech-savvy ride</t>
   </si>
 </sst>
 </file>
@@ -624,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,112 +761,112 @@
     </row>
     <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -862,65 +874,65 @@
         <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -928,20 +940,31 @@
         <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>What is MailboxIQ and what does it do?</t>
   </si>
@@ -299,10 +299,37 @@
     <t>How are you?</t>
   </si>
   <si>
-    <t>Yo, I'm MailboxIQ, feeling fine, no doubt,
-In the digital world, I'm what it's all about,
-I'm coding, decoding, 24/7 in stride,
-Helping emails flow smooth like a tech-savvy ride</t>
+    <t>What's your name?</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>How do you work?</t>
+  </si>
+  <si>
+    <t>What is inside you?</t>
+  </si>
+  <si>
+    <t>Can the one customize you?</t>
+  </si>
+  <si>
+    <t>What are your limitations?</t>
+  </si>
+  <si>
+    <t>Can I take a picture with you?</t>
+  </si>
+  <si>
+    <t>How do you deal with the personal data?</t>
+  </si>
+  <si>
+    <t>I'm MailboxIQ, doing great, can't you see? In the email game, I'm the one you need to be. I keep it cool, always ready to assist, With emails and messages, I persist and persist!</t>
+  </si>
+  <si>
+    <t>How are you doing?</t>
+  </si>
+  <si>
+    <t>How are you today?</t>
   </si>
 </sst>
 </file>
@@ -636,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -671,300 +698,410 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="9" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>What is MailboxIQ and what does it do?</t>
   </si>
@@ -290,9 +290,6 @@
     <t>Can you please tell me about your team?</t>
   </si>
   <si>
-    <t>I do email summaries, keep your inbox clean, Translate your messages, like a linguistic machine, A unicorn in the hackathon scene, that's me, MailboxIQ, the email king, can't you see?</t>
-  </si>
-  <si>
     <t>0110</t>
   </si>
   <si>
@@ -330,6 +327,15 @@
   </si>
   <si>
     <t>How are you today?</t>
+  </si>
+  <si>
+    <t>Yo, I'm the Banking Unicorn, hear me roar,
+In the world of finance, I'm the one they adore,
+From transactions to savings, I'm the star of the show,
+When you ask my name, now you know where I glow!</t>
+  </si>
+  <si>
+    <t>Can you be trained?</t>
   </si>
 </sst>
 </file>
@@ -663,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,7 +693,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -695,29 +701,29 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -736,7 +742,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -747,7 +753,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -764,48 +770,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -813,21 +819,21 @@
         <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -835,21 +841,21 @@
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -857,131 +863,131 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -989,32 +995,32 @@
         <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -1022,65 +1028,65 @@
         <v>66</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -1088,20 +1094,31 @@
         <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Unicorn/Answers/HackathonQuestionsExcel.xlsx
+++ b/Unicorn/Answers/HackathonQuestionsExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>What is MailboxIQ and what does it do?</t>
   </si>
@@ -296,9 +296,6 @@
     <t>How are you?</t>
   </si>
   <si>
-    <t>What's your name?</t>
-  </si>
-  <si>
     <t>What is your name?</t>
   </si>
   <si>
@@ -329,13 +326,19 @@
     <t>How are you today?</t>
   </si>
   <si>
-    <t>Yo, I'm the Banking Unicorn, hear me roar,
-In the world of finance, I'm the one they adore,
-From transactions to savings, I'm the star of the show,
-When you ask my name, now you know where I glow!</t>
-  </si>
-  <si>
     <t>Can you be trained?</t>
+  </si>
+  <si>
+    <t>Yo, I'm the Banking Unicorn, hear me roar, In the world of finance, I'm the one they adore, From transactions to savings, I'm the star of the show, When you ask my name, now you know where I glow!</t>
+  </si>
+  <si>
+    <t>Can say about the features of the app?</t>
+  </si>
+  <si>
+    <t>What are the main features of the MailBoxIQ app?</t>
+  </si>
+  <si>
+    <t>How can I start using the App?</t>
   </si>
 </sst>
 </file>
@@ -669,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +696,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -704,7 +707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>72</v>
       </c>
@@ -715,15 +718,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -731,7 +734,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -750,13 +753,13 @@
     </row>
     <row r="7" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -764,54 +767,54 @@
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -819,21 +822,21 @@
         <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -841,21 +844,21 @@
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -863,21 +866,21 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -885,10 +888,10 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -896,76 +899,76 @@
         <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -973,32 +976,32 @@
         <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -1006,32 +1009,32 @@
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -1039,86 +1042,108 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>75</v>
       </c>
     </row>
